--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1152"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40698,6 +40698,41 @@
         <v>651400</v>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1155700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1153"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40733,6 +40733,41 @@
         <v>1155700</v>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>417200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40768,6 +40768,41 @@
         <v>417200</v>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3528200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1155"/>
+  <dimension ref="A1:I1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40803,6 +40803,41 @@
         <v>3528200</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1176000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1156"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40838,6 +40838,41 @@
         <v>1176000</v>
       </c>
     </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1068100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1157"/>
+  <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40873,6 +40873,41 @@
         <v>1068100</v>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2120700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40908,6 +40908,41 @@
         <v>2120700</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>11662800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1159"/>
+  <dimension ref="A1:I1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40943,6 +40943,41 @@
         <v>11662800</v>
       </c>
     </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>8982400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1160"/>
+  <dimension ref="A1:I1161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40978,6 +40978,41 @@
         <v>8982400</v>
       </c>
     </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3137300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1161"/>
+  <dimension ref="A1:I1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41013,6 +41013,41 @@
         <v>3137300</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>5486800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1162"/>
+  <dimension ref="A1:I1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41048,6 +41048,41 @@
         <v>5486800</v>
       </c>
     </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>2533600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1163"/>
+  <dimension ref="A1:I1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41083,6 +41083,41 @@
         <v>2533600</v>
       </c>
     </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>1245100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1164"/>
+  <dimension ref="A1:I1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41118,6 +41118,76 @@
         <v>1245100</v>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>981800</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1985200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1166"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41188,6 +41188,76 @@
         <v>1985200</v>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>2180800</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>967200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41258,6 +41258,41 @@
         <v>967200</v>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>255800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41293,6 +41293,41 @@
         <v>255800</v>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1425300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41328,6 +41328,41 @@
         <v>1425300</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>986300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41363,6 +41363,41 @@
         <v>986300</v>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>4275500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41398,6 +41398,76 @@
         <v>4275500</v>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>2134500</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1027600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41468,6 +41468,41 @@
         <v>1027600</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>1823900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41503,6 +41503,41 @@
         <v>1823900</v>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>5044000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38985,11 +38985,11 @@
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -39003,28 +39003,28 @@
         </is>
       </c>
       <c r="E1104" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="F1104" t="n">
-        <v>0.895</v>
+        <v>0.855</v>
       </c>
       <c r="G1104" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="H1104" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="I1104" t="n">
-        <v>2829300</v>
+        <v>491100</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -39038,28 +39038,28 @@
         </is>
       </c>
       <c r="E1105" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="F1105" t="n">
-        <v>0.895</v>
+        <v>0.855</v>
       </c>
       <c r="G1105" t="n">
-        <v>0.87</v>
+        <v>0.845</v>
       </c>
       <c r="H1105" t="n">
-        <v>0.875</v>
+        <v>0.845</v>
       </c>
       <c r="I1105" t="n">
-        <v>536200</v>
+        <v>2294400</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -39073,28 +39073,28 @@
         </is>
       </c>
       <c r="E1106" t="n">
-        <v>0.875</v>
+        <v>0.845</v>
       </c>
       <c r="F1106" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="G1106" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="H1106" t="n">
-        <v>0.865</v>
+        <v>0.885</v>
       </c>
       <c r="I1106" t="n">
-        <v>3384800</v>
+        <v>2425700</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -39108,28 +39108,28 @@
         </is>
       </c>
       <c r="E1107" t="n">
-        <v>0.855</v>
+        <v>0.9</v>
       </c>
       <c r="F1107" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G1107" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="H1107" t="n">
-        <v>0.87</v>
+        <v>0.885</v>
       </c>
       <c r="I1107" t="n">
-        <v>665400</v>
+        <v>4371000</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -39143,28 +39143,28 @@
         </is>
       </c>
       <c r="E1108" t="n">
-        <v>0.86</v>
+        <v>0.895</v>
       </c>
       <c r="F1108" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="G1108" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="H1108" t="n">
-        <v>0.87</v>
+        <v>0.885</v>
       </c>
       <c r="I1108" t="n">
-        <v>748000</v>
+        <v>1281900</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -39178,28 +39178,28 @@
         </is>
       </c>
       <c r="E1109" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1109" t="n">
         <v>0.87</v>
       </c>
-      <c r="F1109" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="G1109" t="n">
-        <v>0.865</v>
-      </c>
       <c r="H1109" t="n">
-        <v>0.895</v>
+        <v>0.88</v>
       </c>
       <c r="I1109" t="n">
-        <v>1427600</v>
+        <v>1384400</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -39213,28 +39213,28 @@
         </is>
       </c>
       <c r="E1110" t="n">
-        <v>0.895</v>
+        <v>0.88</v>
       </c>
       <c r="F1110" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G1110" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1110" t="n">
         <v>0.88</v>
       </c>
-      <c r="H1110" t="n">
-        <v>0.89</v>
-      </c>
       <c r="I1110" t="n">
-        <v>1709400</v>
+        <v>1946000</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -39251,25 +39251,25 @@
         <v>0.88</v>
       </c>
       <c r="F1111" t="n">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="G1111" t="n">
         <v>0.875</v>
       </c>
       <c r="H1111" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="I1111" t="n">
-        <v>375300</v>
+        <v>526600</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -39286,25 +39286,25 @@
         <v>0.875</v>
       </c>
       <c r="F1112" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="G1112" t="n">
         <v>0.865</v>
       </c>
       <c r="H1112" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="I1112" t="n">
-        <v>550200</v>
+        <v>1937100</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -39318,28 +39318,28 @@
         </is>
       </c>
       <c r="E1113" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="G1113" t="n">
         <v>0.86</v>
       </c>
       <c r="H1113" t="n">
-        <v>0.86</v>
+        <v>0.895</v>
       </c>
       <c r="I1113" t="n">
-        <v>778700</v>
+        <v>2829300</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -39353,28 +39353,28 @@
         </is>
       </c>
       <c r="E1114" t="n">
-        <v>0.865</v>
+        <v>0.895</v>
       </c>
       <c r="F1114" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1114" t="n">
         <v>0.87</v>
       </c>
-      <c r="G1114" t="n">
-        <v>0.86</v>
-      </c>
       <c r="H1114" t="n">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="I1114" t="n">
-        <v>667800</v>
+        <v>536200</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -39388,10 +39388,10 @@
         </is>
       </c>
       <c r="E1115" t="n">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="F1115" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="G1115" t="n">
         <v>0.855</v>
@@ -39400,16 +39400,16 @@
         <v>0.865</v>
       </c>
       <c r="I1115" t="n">
-        <v>565100</v>
+        <v>3384800</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -39423,7 +39423,7 @@
         </is>
       </c>
       <c r="E1116" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="F1116" t="n">
         <v>0.87</v>
@@ -39432,19 +39432,19 @@
         <v>0.855</v>
       </c>
       <c r="H1116" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I1116" t="n">
-        <v>1883100</v>
+        <v>665400</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -39461,25 +39461,25 @@
         <v>0.86</v>
       </c>
       <c r="F1117" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1117" t="n">
         <v>0.86</v>
       </c>
-      <c r="G1117" t="n">
-        <v>0.855</v>
-      </c>
       <c r="H1117" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I1117" t="n">
-        <v>1058300</v>
+        <v>748000</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -39493,28 +39493,28 @@
         </is>
       </c>
       <c r="E1118" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F1118" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="G1118" t="n">
-        <v>0.86</v>
+        <v>0.865</v>
       </c>
       <c r="H1118" t="n">
-        <v>0.865</v>
+        <v>0.895</v>
       </c>
       <c r="I1118" t="n">
-        <v>580700</v>
+        <v>1427600</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -39528,28 +39528,28 @@
         </is>
       </c>
       <c r="E1119" t="n">
-        <v>0.865</v>
+        <v>0.895</v>
       </c>
       <c r="F1119" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="G1119" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="H1119" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="I1119" t="n">
-        <v>6411400</v>
+        <v>1709400</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -39563,28 +39563,28 @@
         </is>
       </c>
       <c r="E1120" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.86</v>
+        <v>0.885</v>
       </c>
       <c r="G1120" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="H1120" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I1120" t="n">
-        <v>1330700</v>
+        <v>375300</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -39598,28 +39598,28 @@
         </is>
       </c>
       <c r="E1121" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1121" t="n">
         <v>0.865</v>
       </c>
-      <c r="F1121" t="n">
+      <c r="H1121" t="n">
         <v>0.87</v>
       </c>
-      <c r="G1121" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0.86</v>
-      </c>
       <c r="I1121" t="n">
-        <v>748100</v>
+        <v>550200</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -39636,25 +39636,25 @@
         <v>0.865</v>
       </c>
       <c r="F1122" t="n">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="G1122" t="n">
         <v>0.86</v>
       </c>
       <c r="H1122" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="I1122" t="n">
-        <v>3177500</v>
+        <v>778700</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -39668,28 +39668,28 @@
         </is>
       </c>
       <c r="E1123" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F1123" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="G1123" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H1123" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="I1123" t="n">
-        <v>969600</v>
+        <v>667800</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -39703,28 +39703,28 @@
         </is>
       </c>
       <c r="E1124" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F1124" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G1124" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H1124" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="I1124" t="n">
-        <v>704800</v>
+        <v>565100</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -39738,28 +39738,28 @@
         </is>
       </c>
       <c r="E1125" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="G1125" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H1125" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I1125" t="n">
-        <v>2564400</v>
+        <v>1883100</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -39773,28 +39773,28 @@
         </is>
       </c>
       <c r="E1126" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F1126" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="G1126" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="H1126" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I1126" t="n">
-        <v>348400</v>
+        <v>1058300</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -39808,28 +39808,28 @@
         </is>
       </c>
       <c r="E1127" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1127" t="n">
         <v>0.87</v>
       </c>
-      <c r="F1127" t="n">
-        <v>0.875</v>
-      </c>
       <c r="G1127" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="H1127" t="n">
         <v>0.865</v>
       </c>
       <c r="I1127" t="n">
-        <v>1124000</v>
+        <v>580700</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -39843,28 +39843,28 @@
         </is>
       </c>
       <c r="E1128" t="n">
-        <v>0.86</v>
+        <v>0.865</v>
       </c>
       <c r="F1128" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="G1128" t="n">
         <v>0.86</v>
       </c>
       <c r="H1128" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="I1128" t="n">
-        <v>665500</v>
+        <v>6411400</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -39878,28 +39878,28 @@
         </is>
       </c>
       <c r="E1129" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F1129" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="G1129" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="H1129" t="n">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="I1129" t="n">
-        <v>304100</v>
+        <v>1330700</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -39916,25 +39916,25 @@
         <v>0.865</v>
       </c>
       <c r="F1130" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="G1130" t="n">
         <v>0.855</v>
       </c>
       <c r="H1130" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="I1130" t="n">
-        <v>534800</v>
+        <v>748100</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -39948,28 +39948,28 @@
         </is>
       </c>
       <c r="E1131" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="F1131" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="G1131" t="n">
         <v>0.86</v>
       </c>
       <c r="H1131" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="I1131" t="n">
-        <v>1432000</v>
+        <v>3177500</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -39983,28 +39983,28 @@
         </is>
       </c>
       <c r="E1132" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="F1132" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="G1132" t="n">
         <v>0.87</v>
       </c>
       <c r="H1132" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="I1132" t="n">
-        <v>274200</v>
+        <v>969600</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -40018,28 +40018,28 @@
         </is>
       </c>
       <c r="E1133" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1133" t="n">
         <v>0.87</v>
       </c>
-      <c r="F1133" t="n">
+      <c r="H1133" t="n">
         <v>0.87</v>
       </c>
-      <c r="G1133" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0.86</v>
-      </c>
       <c r="I1133" t="n">
-        <v>284500</v>
+        <v>704800</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -40053,28 +40053,28 @@
         </is>
       </c>
       <c r="E1134" t="n">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="F1134" t="n">
-        <v>0.865</v>
+        <v>0.885</v>
       </c>
       <c r="G1134" t="n">
-        <v>0.855</v>
+        <v>0.87</v>
       </c>
       <c r="H1134" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I1134" t="n">
-        <v>918100</v>
+        <v>2564400</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -40088,28 +40088,28 @@
         </is>
       </c>
       <c r="E1135" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F1135" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1135" t="n">
         <v>0.865</v>
       </c>
-      <c r="G1135" t="n">
-        <v>0.86</v>
-      </c>
       <c r="H1135" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="I1135" t="n">
-        <v>362000</v>
+        <v>348400</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -40123,28 +40123,28 @@
         </is>
       </c>
       <c r="E1136" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F1136" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="G1136" t="n">
-        <v>0.86</v>
+        <v>0.865</v>
       </c>
       <c r="H1136" t="n">
         <v>0.865</v>
       </c>
       <c r="I1136" t="n">
-        <v>1403900</v>
+        <v>1124000</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -40158,28 +40158,28 @@
         </is>
       </c>
       <c r="E1137" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F1137" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G1137" t="n">
         <v>0.86</v>
       </c>
       <c r="H1137" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="I1137" t="n">
-        <v>1250700</v>
+        <v>665500</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -40193,10 +40193,10 @@
         </is>
       </c>
       <c r="E1138" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="F1138" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="G1138" t="n">
         <v>0.865</v>
@@ -40205,16 +40205,16 @@
         <v>0.875</v>
       </c>
       <c r="I1138" t="n">
-        <v>1552300</v>
+        <v>304100</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -40228,28 +40228,28 @@
         </is>
       </c>
       <c r="E1139" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F1139" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="G1139" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H1139" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="I1139" t="n">
-        <v>4117700</v>
+        <v>534800</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -40263,28 +40263,28 @@
         </is>
       </c>
       <c r="E1140" t="n">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="F1140" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="G1140" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H1140" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="I1140" t="n">
-        <v>3182700</v>
+        <v>1432000</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -40310,16 +40310,16 @@
         <v>0.87</v>
       </c>
       <c r="I1141" t="n">
-        <v>211300</v>
+        <v>274200</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -40333,28 +40333,28 @@
         </is>
       </c>
       <c r="E1142" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F1142" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G1142" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="H1142" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I1142" t="n">
-        <v>498800</v>
+        <v>284500</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -40371,25 +40371,25 @@
         <v>0.86</v>
       </c>
       <c r="F1143" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="G1143" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="H1143" t="n">
         <v>0.86</v>
       </c>
       <c r="I1143" t="n">
-        <v>1503500</v>
+        <v>918100</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -40409,22 +40409,22 @@
         <v>0.865</v>
       </c>
       <c r="G1144" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="H1144" t="n">
         <v>0.865</v>
       </c>
       <c r="I1144" t="n">
-        <v>2285300</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -40441,25 +40441,25 @@
         <v>0.86</v>
       </c>
       <c r="F1145" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1145" t="n">
         <v>0.86</v>
       </c>
-      <c r="G1145" t="n">
-        <v>0.845</v>
-      </c>
       <c r="H1145" t="n">
-        <v>0.845</v>
+        <v>0.865</v>
       </c>
       <c r="I1145" t="n">
-        <v>1669000</v>
+        <v>1403900</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -40473,28 +40473,28 @@
         </is>
       </c>
       <c r="E1146" t="n">
-        <v>0.845</v>
+        <v>0.865</v>
       </c>
       <c r="F1146" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="G1146" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="H1146" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I1146" t="n">
-        <v>1329300</v>
+        <v>1250700</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -40508,28 +40508,28 @@
         </is>
       </c>
       <c r="E1147" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F1147" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="G1147" t="n">
-        <v>0.8</v>
+        <v>0.865</v>
       </c>
       <c r="H1147" t="n">
-        <v>0.82</v>
+        <v>0.875</v>
       </c>
       <c r="I1147" t="n">
-        <v>1438200</v>
+        <v>1552300</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -40543,28 +40543,28 @@
         </is>
       </c>
       <c r="E1148" t="n">
-        <v>0.825</v>
+        <v>0.88</v>
       </c>
       <c r="F1148" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G1148" t="n">
-        <v>0.825</v>
+        <v>0.87</v>
       </c>
       <c r="H1148" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="I1148" t="n">
-        <v>644200</v>
+        <v>4117700</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -40578,28 +40578,28 @@
         </is>
       </c>
       <c r="E1149" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="F1149" t="n">
-        <v>0.855</v>
+        <v>0.875</v>
       </c>
       <c r="G1149" t="n">
-        <v>0.835</v>
+        <v>0.87</v>
       </c>
       <c r="H1149" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="I1149" t="n">
-        <v>1360500</v>
+        <v>3182700</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -40613,28 +40613,28 @@
         </is>
       </c>
       <c r="E1150" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="F1150" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="G1150" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="H1150" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="I1150" t="n">
-        <v>1104500</v>
+        <v>211300</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -40648,28 +40648,28 @@
         </is>
       </c>
       <c r="E1151" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="F1151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1151" t="n">
         <v>0.865</v>
       </c>
-      <c r="G1151" t="n">
-        <v>0.845</v>
-      </c>
       <c r="H1151" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="I1151" t="n">
-        <v>1239700</v>
+        <v>498800</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -40683,28 +40683,28 @@
         </is>
       </c>
       <c r="E1152" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F1152" t="n">
-        <v>0.865</v>
+        <v>0.88</v>
       </c>
       <c r="G1152" t="n">
         <v>0.85</v>
       </c>
       <c r="H1152" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="I1152" t="n">
-        <v>651400</v>
+        <v>1503500</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -40721,7 +40721,7 @@
         <v>0.86</v>
       </c>
       <c r="F1153" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="G1153" t="n">
         <v>0.855</v>
@@ -40730,16 +40730,16 @@
         <v>0.865</v>
       </c>
       <c r="I1153" t="n">
-        <v>1155700</v>
+        <v>2285300</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -40753,28 +40753,28 @@
         </is>
       </c>
       <c r="E1154" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F1154" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="G1154" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="H1154" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="I1154" t="n">
-        <v>417200</v>
+        <v>1669000</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -40788,28 +40788,28 @@
         </is>
       </c>
       <c r="E1155" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.87</v>
+        <v>0.845</v>
       </c>
       <c r="G1155" t="n">
-        <v>0.845</v>
+        <v>0.82</v>
       </c>
       <c r="H1155" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="I1155" t="n">
-        <v>3528200</v>
+        <v>1329300</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -40823,28 +40823,28 @@
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>0.87</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F1156" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="G1156" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="H1156" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="I1156" t="n">
-        <v>1176000</v>
+        <v>1438200</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -40858,28 +40858,28 @@
         </is>
       </c>
       <c r="E1157" t="n">
-        <v>0.865</v>
+        <v>0.825</v>
       </c>
       <c r="F1157" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="G1157" t="n">
-        <v>0.855</v>
+        <v>0.825</v>
       </c>
       <c r="H1157" t="n">
-        <v>0.87</v>
+        <v>0.845</v>
       </c>
       <c r="I1157" t="n">
-        <v>1068100</v>
+        <v>644200</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -40893,28 +40893,28 @@
         </is>
       </c>
       <c r="E1158" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F1158" t="n">
-        <v>0.88</v>
+        <v>0.855</v>
       </c>
       <c r="G1158" t="n">
-        <v>0.86</v>
+        <v>0.835</v>
       </c>
       <c r="H1158" t="n">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="I1158" t="n">
-        <v>2120700</v>
+        <v>1360500</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -40928,28 +40928,28 @@
         </is>
       </c>
       <c r="E1159" t="n">
-        <v>0.88</v>
+        <v>0.845</v>
       </c>
       <c r="F1159" t="n">
-        <v>0.91</v>
+        <v>0.855</v>
       </c>
       <c r="G1159" t="n">
-        <v>0.87</v>
+        <v>0.845</v>
       </c>
       <c r="H1159" t="n">
-        <v>0.9</v>
+        <v>0.845</v>
       </c>
       <c r="I1159" t="n">
-        <v>11662800</v>
+        <v>1104500</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -40963,28 +40963,28 @@
         </is>
       </c>
       <c r="E1160" t="n">
-        <v>0.905</v>
+        <v>0.845</v>
       </c>
       <c r="F1160" t="n">
-        <v>0.915</v>
+        <v>0.865</v>
       </c>
       <c r="G1160" t="n">
-        <v>0.9</v>
+        <v>0.845</v>
       </c>
       <c r="H1160" t="n">
-        <v>0.9</v>
+        <v>0.865</v>
       </c>
       <c r="I1160" t="n">
-        <v>8982400</v>
+        <v>1239700</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -40998,28 +40998,28 @@
         </is>
       </c>
       <c r="E1161" t="n">
-        <v>0.9</v>
+        <v>0.865</v>
       </c>
       <c r="F1161" t="n">
-        <v>0.905</v>
+        <v>0.865</v>
       </c>
       <c r="G1161" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="H1161" t="n">
-        <v>0.9</v>
+        <v>0.865</v>
       </c>
       <c r="I1161" t="n">
-        <v>3137300</v>
+        <v>651400</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -41033,28 +41033,28 @@
         </is>
       </c>
       <c r="E1162" t="n">
-        <v>0.895</v>
+        <v>0.86</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="G1162" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="H1162" t="n">
-        <v>0.9</v>
+        <v>0.865</v>
       </c>
       <c r="I1162" t="n">
-        <v>5486800</v>
+        <v>1155700</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -41068,28 +41068,28 @@
         </is>
       </c>
       <c r="E1163" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F1163" t="n">
-        <v>0.91</v>
+        <v>0.865</v>
       </c>
       <c r="G1163" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="H1163" t="n">
-        <v>0.895</v>
+        <v>0.855</v>
       </c>
       <c r="I1163" t="n">
-        <v>2533600</v>
+        <v>417200</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -41103,28 +41103,28 @@
         </is>
       </c>
       <c r="E1164" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F1164" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="G1164" t="n">
-        <v>0.89</v>
+        <v>0.845</v>
       </c>
       <c r="H1164" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="I1164" t="n">
-        <v>1245100</v>
+        <v>3528200</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -41138,28 +41138,28 @@
         </is>
       </c>
       <c r="E1165" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F1165" t="n">
-        <v>0.905</v>
+        <v>0.87</v>
       </c>
       <c r="G1165" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="H1165" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="I1165" t="n">
-        <v>981800</v>
+        <v>1176000</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -41173,28 +41173,28 @@
         </is>
       </c>
       <c r="E1166" t="n">
-        <v>0.885</v>
+        <v>0.865</v>
       </c>
       <c r="F1166" t="n">
-        <v>0.895</v>
+        <v>0.87</v>
       </c>
       <c r="G1166" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H1166" t="n">
         <v>0.87</v>
       </c>
       <c r="I1166" t="n">
-        <v>1985200</v>
+        <v>1068100</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -41214,22 +41214,22 @@
         <v>0.88</v>
       </c>
       <c r="G1167" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H1167" t="n">
         <v>0.875</v>
       </c>
       <c r="I1167" t="n">
-        <v>2180800</v>
+        <v>2120700</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -41243,28 +41243,28 @@
         </is>
       </c>
       <c r="E1168" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1168" t="n">
         <v>0.87</v>
       </c>
-      <c r="F1168" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G1168" t="n">
-        <v>0.865</v>
-      </c>
       <c r="H1168" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="I1168" t="n">
-        <v>967200</v>
+        <v>11662800</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -41278,28 +41278,28 @@
         </is>
       </c>
       <c r="E1169" t="n">
-        <v>0.87</v>
+        <v>0.905</v>
       </c>
       <c r="F1169" t="n">
-        <v>0.88</v>
+        <v>0.915</v>
       </c>
       <c r="G1169" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="H1169" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="I1169" t="n">
-        <v>255800</v>
+        <v>8982400</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -41313,28 +41313,28 @@
         </is>
       </c>
       <c r="E1170" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F1170" t="n">
-        <v>0.88</v>
+        <v>0.905</v>
       </c>
       <c r="G1170" t="n">
-        <v>0.865</v>
+        <v>0.89</v>
       </c>
       <c r="H1170" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="I1170" t="n">
-        <v>1425300</v>
+        <v>3137300</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -41348,28 +41348,28 @@
         </is>
       </c>
       <c r="E1171" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="F1171" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G1171" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="H1171" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I1171" t="n">
-        <v>986300</v>
+        <v>5486800</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -41383,28 +41383,28 @@
         </is>
       </c>
       <c r="E1172" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F1172" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G1172" t="n">
-        <v>0.82</v>
+        <v>0.875</v>
       </c>
       <c r="H1172" t="n">
-        <v>0.835</v>
+        <v>0.895</v>
       </c>
       <c r="I1172" t="n">
-        <v>4275500</v>
+        <v>2533600</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -41418,28 +41418,28 @@
         </is>
       </c>
       <c r="E1173" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F1173" t="n">
-        <v>0.835</v>
+        <v>0.91</v>
       </c>
       <c r="G1173" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H1173" t="n">
-        <v>0.825</v>
+        <v>0.9</v>
       </c>
       <c r="I1173" t="n">
-        <v>2134500</v>
+        <v>1245100</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -41453,28 +41453,28 @@
         </is>
       </c>
       <c r="E1174" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F1174" t="n">
-        <v>0.835</v>
+        <v>0.905</v>
       </c>
       <c r="G1174" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="H1174" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="I1174" t="n">
-        <v>1027600</v>
+        <v>981800</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -41488,53 +41488,368 @@
         </is>
       </c>
       <c r="E1175" t="n">
-        <v>0.83</v>
+        <v>0.885</v>
       </c>
       <c r="F1175" t="n">
-        <v>0.83</v>
+        <v>0.895</v>
       </c>
       <c r="G1175" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H1175" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I1175" t="n">
-        <v>1823900</v>
+        <v>1985200</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2180800</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>967200</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>255800</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1425300</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>986300</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>4275500</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2134500</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>1027600</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>1823900</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1176" t="inlineStr">
+      <c r="B1185" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1176" t="inlineStr">
-        <is>
-          <t>5264</t>
-        </is>
-      </c>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>MALAKOF</t>
-        </is>
-      </c>
-      <c r="E1176" t="n">
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
         <v>0.765</v>
       </c>
-      <c r="F1176" t="n">
+      <c r="F1185" t="n">
         <v>0.82</v>
       </c>
-      <c r="G1176" t="n">
+      <c r="G1185" t="n">
         <v>0.745</v>
       </c>
-      <c r="H1176" t="n">
+      <c r="H1185" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="I1176" t="n">
+      <c r="I1185" t="n">
         <v>5044000</v>
       </c>
     </row>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41853,6 +41853,41 @@
         <v>5044000</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>5890500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41888,6 +41888,41 @@
         <v>5890500</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>4863100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41923,6 +41923,41 @@
         <v>4863100</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3098400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41958,6 +41958,41 @@
         <v>3098400</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>5758600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41993,6 +41993,41 @@
         <v>5758600</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>6886300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42028,6 +42028,41 @@
         <v>6886300</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>2595900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42063,6 +42063,41 @@
         <v>2595900</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1335500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42098,6 +42098,41 @@
         <v>1335500</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>3467500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42133,6 +42133,41 @@
         <v>3467500</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>3859200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42168,6 +42168,41 @@
         <v>3859200</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>3388300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42203,6 +42203,41 @@
         <v>3388300</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>2534600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42238,6 +42238,41 @@
         <v>2534600</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1494600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42273,6 +42273,41 @@
         <v>1494600</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1681400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42308,6 +42308,41 @@
         <v>1681400</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1669200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42343,6 +42343,41 @@
         <v>1669200</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>3031700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42378,6 +42378,41 @@
         <v>3031700</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1052800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42413,6 +42413,41 @@
         <v>1052800</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1885700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42448,6 +42448,41 @@
         <v>1885700</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1667300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42483,6 +42483,41 @@
         <v>1667300</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1343200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42518,6 +42518,41 @@
         <v>1343200</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1569400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42553,6 +42553,41 @@
         <v>1569400</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>895600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42588,6 +42588,41 @@
         <v>895600</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1266100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42623,6 +42623,41 @@
         <v>1266100</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1954800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42658,6 +42658,41 @@
         <v>1954800</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1858900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42693,6 +42693,41 @@
         <v>1858900</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1098800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42728,6 +42728,76 @@
         <v>1098800</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1908900</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>792900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42798,6 +42798,41 @@
         <v>792900</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>851600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42833,6 +42833,111 @@
         <v>851600</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1282900</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>291800</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>737300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42938,6 +42938,41 @@
         <v>737300</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>453400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>453400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>698700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5264.xlsx
+++ b/data/5264.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,111 @@
         <v>698700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1585200</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1399500</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3080500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
